--- a/medicine/Enfance/François_Gilson/François_Gilson.xlsx
+++ b/medicine/Enfance/François_Gilson/François_Gilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gilson</t>
+          <t>François_Gilson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Gilson, dit Gilson, né le 16 novembre 1965 à Bad Arolsen (alors en Allemagne de l'Ouest), est un scénariste humoristique de bande dessinée belge et un écrivain jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Gilson</t>
+          <t>François_Gilson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et débuts
-François Gilson naît le 16 novembre 1965 à Bad Arolsen en Allemagne où son père militaire de carrière, membre des Forces belges en Allemagne est caserné[1]. Plus tard demeurant à Liège, il a pour condisciple Clarke qu'il il fréquente déjà et avec qui il crée un fanzine appelé Cafard[1]. La direction de l'établissement catholique n'apprécie guère et expulse les deux camarades au premier prétexte venu.
-Toujours avec Clarke, il rejoint plus tard l'Académie royale des beaux-arts de Liège mais s'aperçoit vite qu'au contraire de ce dernier, il n'est pas suffisamment doué en dessin pour en faire autre chose qu'un hobby[1]. Cependant, son imagination pour inventer des scénarios lui permet de rester dans le domaine de la bande dessinée. Avec Didier Casten au dessin, il publie José le Balayeur dans Jet[2].
-Il envoie alors un de ses projets à Raoul Cauvin, une des têtes de Spirou, qui, intéressé, fait suivre le dossier vers le rédacteur en chef du journal de l'époque, Patrick Pinchart, qui encourage Gilson à continuer dans cette voie. Le dessinateur Marc Hardy lui apporte également son soutien et lui apprend les ficelles du métier[3].
-Mais malgré cela, il a du mal à convaincre. Il essuie de nombreux refus, travaille « bénévolement » pour le fanzine Impayable[1] pour enfin publier en 1987 son premier album avec Clarke, Rebecca - Bon anniversaire, Papy aux éditions liégeoises Khâny[1]. Il part ensuite en Allemagne effectuer son service militaire (étant né là-bas) et effectue chaque jour l'aller-retour Belgique-Allemagne dans un camion postal.
-Dans Spirou
-À force de refus et de persévérance, il parvient à trouver une petite place dans le monde de la bande dessinée et fait son entrée dans le magazine Spirou avec un gag de Pierre Tombal en 1987[4]. Il invente Africa Jim (1991) avec Clarke, une série « bouche-trou » racontant les histoires d'un anti-aventurier, dans la rubrique La Balise à cartoons du journal ainsi que Carmela avec Serge Carrère (1989), Comique strips avec Duquesnoy (1990), Non-sense avec Glem (1992), La Tribu des Épithètes[2] avec Guilhem (1992), Hervé T.T. avec E411 (1997), Supermamie[1] avec Mazel (1998) autres séries à la vie éphémère.
-Mais c'est Garage Isidore[5] qui devient sa première vraie série en 1990 et dont il confie le dessin, un an après la création du projet, à Olis qui dessine les huit premiers tomes, Stédo dessinant les trois suivants et Alain Sikorski lui succède et anime graphiquement la série, jusqu'en 2012, qui comporte 14 tomes publiés aux éditions Dupuis.
-En 1992, il crée Mélusine — la jeune et jolie élève-sorcière — avec Clarke qui rencontre un succès confortable. Il scénarise la série en courts récits publiés dans le journal Spirou pendant vingt ans, collectés en albums aux éditions Dupuis jusqu'au vingtième album en 2012, puis Clarke prendra la destinée de Mélusine seul en main. En 1994, il écrit le scénario du vingt-cinquième album du Scrameustache pour Gos et Walt[1]. En 1998, il scénarise quelques gags coquins pour la série Ça vous intéresse ? de Dany publiés directement en album aux éditions P&amp;T en 1998. En 1999, pour les enfants hospitalisés de Charleroi, il scénarise Une aventure de Loupiotte dessinée par Mauricet et publiée aux éditions Dupuis[6].
-Il s'associe à Philippe Bercovici pour créer la série humoristique Cactus Club, contant les déboires d'un animateur d'un club de vacances, prépubliée dans Spirou[7] de 1994 à 2004, les albums, au nombre de 9, collationnent les 345 gags publiés chez le même éditeur.
-Il crée encore la série Les Vétos avec le dessinateur Peral publiée dans la collection « Humour Job » aux éditions Bamboo (3 tomes, 2009-2011)[1].
-Comme auteur, il écrit pour les tout petits la série Sourimousse, illustrée par Peral dans la collection éponyme puis rééditée dans la collection « un mot, une image » aux éditions Hemma de 2000 à 2003[8].
-Parallèlement, il réalise quelques scénarios des apparitions de Spip (l'écureuil de Spirou et Fantasio) sur de très courts métrages, qui furent diffusés sur TF1 dans le cadre de l'émission pour enfant matinale À tout Spip[8]. On lui doit aussi une participation aux albums collectifs : Parodies - ... par leurs vrais auteurs ! (MC Productions, 1987), C'est fou le foot sans les règles (Pictoris studio, 1998) et 1001 visions du sexe en 2014. L'auteur publie encore huit webtoons sur son blog officiel et ne publie plus depuis lors. 
-Selon Patrick Gaumer[1], François Gilson « [...] s'impose comme l'un des dignes héritiers de Raoul Cauvin. » .
+          <t>Jeunesse et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Gilson naît le 16 novembre 1965 à Bad Arolsen en Allemagne où son père militaire de carrière, membre des Forces belges en Allemagne est caserné. Plus tard demeurant à Liège, il a pour condisciple Clarke qu'il il fréquente déjà et avec qui il crée un fanzine appelé Cafard. La direction de l'établissement catholique n'apprécie guère et expulse les deux camarades au premier prétexte venu.
+Toujours avec Clarke, il rejoint plus tard l'Académie royale des beaux-arts de Liège mais s'aperçoit vite qu'au contraire de ce dernier, il n'est pas suffisamment doué en dessin pour en faire autre chose qu'un hobby. Cependant, son imagination pour inventer des scénarios lui permet de rester dans le domaine de la bande dessinée. Avec Didier Casten au dessin, il publie José le Balayeur dans Jet.
+Il envoie alors un de ses projets à Raoul Cauvin, une des têtes de Spirou, qui, intéressé, fait suivre le dossier vers le rédacteur en chef du journal de l'époque, Patrick Pinchart, qui encourage Gilson à continuer dans cette voie. Le dessinateur Marc Hardy lui apporte également son soutien et lui apprend les ficelles du métier.
+Mais malgré cela, il a du mal à convaincre. Il essuie de nombreux refus, travaille « bénévolement » pour le fanzine Impayable pour enfin publier en 1987 son premier album avec Clarke, Rebecca - Bon anniversaire, Papy aux éditions liégeoises Khâny. Il part ensuite en Allemagne effectuer son service militaire (étant né là-bas) et effectue chaque jour l'aller-retour Belgique-Allemagne dans un camion postal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>François_Gilson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gilson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dans Spirou</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À force de refus et de persévérance, il parvient à trouver une petite place dans le monde de la bande dessinée et fait son entrée dans le magazine Spirou avec un gag de Pierre Tombal en 1987. Il invente Africa Jim (1991) avec Clarke, une série « bouche-trou » racontant les histoires d'un anti-aventurier, dans la rubrique La Balise à cartoons du journal ainsi que Carmela avec Serge Carrère (1989), Comique strips avec Duquesnoy (1990), Non-sense avec Glem (1992), La Tribu des Épithètes avec Guilhem (1992), Hervé T.T. avec E411 (1997), Supermamie avec Mazel (1998) autres séries à la vie éphémère.
+Mais c'est Garage Isidore qui devient sa première vraie série en 1990 et dont il confie le dessin, un an après la création du projet, à Olis qui dessine les huit premiers tomes, Stédo dessinant les trois suivants et Alain Sikorski lui succède et anime graphiquement la série, jusqu'en 2012, qui comporte 14 tomes publiés aux éditions Dupuis.
+En 1992, il crée Mélusine — la jeune et jolie élève-sorcière — avec Clarke qui rencontre un succès confortable. Il scénarise la série en courts récits publiés dans le journal Spirou pendant vingt ans, collectés en albums aux éditions Dupuis jusqu'au vingtième album en 2012, puis Clarke prendra la destinée de Mélusine seul en main. En 1994, il écrit le scénario du vingt-cinquième album du Scrameustache pour Gos et Walt. En 1998, il scénarise quelques gags coquins pour la série Ça vous intéresse ? de Dany publiés directement en album aux éditions P&amp;T en 1998. En 1999, pour les enfants hospitalisés de Charleroi, il scénarise Une aventure de Loupiotte dessinée par Mauricet et publiée aux éditions Dupuis.
+Il s'associe à Philippe Bercovici pour créer la série humoristique Cactus Club, contant les déboires d'un animateur d'un club de vacances, prépubliée dans Spirou de 1994 à 2004, les albums, au nombre de 9, collationnent les 345 gags publiés chez le même éditeur.
+Il crée encore la série Les Vétos avec le dessinateur Peral publiée dans la collection « Humour Job » aux éditions Bamboo (3 tomes, 2009-2011).
+Comme auteur, il écrit pour les tout petits la série Sourimousse, illustrée par Peral dans la collection éponyme puis rééditée dans la collection « un mot, une image » aux éditions Hemma de 2000 à 2003.
+Parallèlement, il réalise quelques scénarios des apparitions de Spip (l'écureuil de Spirou et Fantasio) sur de très courts métrages, qui furent diffusés sur TF1 dans le cadre de l'émission pour enfant matinale À tout Spip. On lui doit aussi une participation aux albums collectifs : Parodies - ... par leurs vrais auteurs ! (MC Productions, 1987), C'est fou le foot sans les règles (Pictoris studio, 1998) et 1001 visions du sexe en 2014. L'auteur publie encore huit webtoons sur son blog officiel et ne publie plus depuis lors. 
+Selon Patrick Gaumer, François Gilson « [...] s'impose comme l'un des dignes héritiers de Raoul Cauvin. » .
 	François Gilson en dédicace dans la région liégeoise en 1996
 			Bruno Di Sano (à gauche), André Osi (au centre), François Gilson.
 			André Osi (abaissé), François Gilson.
@@ -534,34 +586,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Gilson</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Gilson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gilson</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Rebecca, Bon anniversaire Papy !!, avec Clarke (dessin), 1987
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rebecca, Bon anniversaire Papy !!, avec Clarke (dessin), 1987
 Mélusine, avec Clarke (dessins) et Cerise (couleurs), Dupuis
 Sortilèges (février 1995)
 Le Bal des vampires (avril 1996)
@@ -597,15 +654,87 @@
 11 Moteur !, Dupuis, Marcinelle, mars 2007Scénario : François Gilson - Dessin : Stédo - Couleurs : Cerise -  (ISBN 9782800136547)
 12 Place au pro, Dupuis, Marcinelle, juin 2008Scénario : François Gilson - Dessin : Alain Sikorski - Couleurs : Cerise -  (ISBN 978-2-8001-4024-7)
 13 Plein pot, Dupuis, Marcinelle, novembre 2009Scénario : François Gilson - Dessin : Alain Sikorski - Couleurs : Cerise -  (ISBN 978-2-8001-4414-6)
-14 Rallye en folie[9], Dupuis, Marcinelle, 7 janvier 2011Scénario : François Gilson - Dessin : Alain Sikorski - Couleurs : Cerise -  (ISBN 978-2-8001-4717-8)
+14 Rallye en folie, Dupuis, Marcinelle, 7 janvier 2011Scénario : François Gilson - Dessin : Alain Sikorski - Couleurs : Cerise -  (ISBN 978-2-8001-4717-8)
 Une aventure de Loupiote, avec Mauricet (dessin)
-Loupiote au C.H.U. de Charleroi, 1999
-Collectifs
-1 Parodies - ... par leurs vrais auteurs !, M.C. Productions, Toulon, octobre 1987Scénario : collectif dont François Gilson - Dessin : collectif - Couleurs : quadrichromie -   (ISBN 2-907143-02-6),Participation : Pierre Tombal (2 planches)
+Loupiote au C.H.U. de Charleroi, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Gilson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gilson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1 Parodies - ... par leurs vrais auteurs !, M.C. Productions, Toulon, octobre 1987Scénario : collectif dont François Gilson - Dessin : collectif - Couleurs : quadrichromie -   (ISBN 2-907143-02-6),Participation : Pierre Tombal (2 planches)
 C'est fou le foot sans les règles, Pictoris studio, mai 1998Scénario : collectif dont Gilson - Dessin : collectif - Couleurs : quadrichromie -  (ISBN 2-84153-100-7)
-1001 visions du sexe, Graph Zeppelin, 28 novembre 2014Scénario : Patrice Bauduinet - Dessin : collectif dont François Gilson - Couleurs : noir et blanc -  (ISBN 979-10-94169-01-8)
-Livres pour enfants
- Sourimousse est malade, Peral (ill.), Hemma, coll. « Sourimousse », 2000  (ISBN 9782800676708)
+1001 visions du sexe, Graph Zeppelin, 28 novembre 2014Scénario : Patrice Bauduinet - Dessin : collectif dont François Gilson - Couleurs : noir et blanc -  (ISBN 979-10-94169-01-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Gilson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Gilson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sourimousse est malade, Peral (ill.), Hemma, coll. « Sourimousse », 2000  (ISBN 9782800676708)
  Sourimousse va à la pêche, Peral (ill.), Hemma, coll. « Sourimousse », 2000  (ISBN 9782800676715)
  Sourimousse bricole, Peral (ill.), Hemma, coll. « Sourimousse », 2000  (ISBN 9782800676722)
  Sourimousse cuisine, Peral (ill.), Hemma, coll. « Sourimousse », 2000  (ISBN 9782800676739)
